--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -593,7 +593,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-2-unique)</t>
+Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication)</t>
   </si>
   <si>
     <t>What medication was supplied</t>
@@ -815,7 +815,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest-2)
+    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-inpatient-medicationrequest)
 </t>
   </si>
   <si>
@@ -1473,7 +1473,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="367">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>French medication dispense profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1385,66 +1388,68 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1507,135 +1512,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1643,10 +1648,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>19</v>
@@ -1658,13 +1663,13 @@
         <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1715,25 +1720,25 @@
         <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>19</v>
@@ -1747,10 +1752,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1758,10 +1763,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>19</v>
@@ -1770,19 +1775,19 @@
         <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1832,13 +1837,13 @@
         <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>19</v>
@@ -1864,10 +1869,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1875,10 +1880,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>19</v>
@@ -1887,16 +1892,16 @@
         <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1947,19 +1952,19 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
@@ -1979,10 +1984,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1990,31 +1995,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2064,19 +2069,19 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
@@ -2096,10 +2101,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2107,10 +2112,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>19</v>
@@ -2122,16 +2127,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2157,13 +2162,13 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>19</v>
@@ -2181,19 +2186,19 @@
         <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
@@ -2213,21 +2218,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>19</v>
@@ -2239,16 +2244,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2298,25 +2303,25 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>19</v>
@@ -2330,21 +2335,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>19</v>
@@ -2356,16 +2361,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2415,13 +2420,13 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>19</v>
@@ -2433,7 +2438,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>19</v>
@@ -2447,21 +2452,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>19</v>
@@ -2473,16 +2478,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2532,25 +2537,25 @@
         <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>19</v>
@@ -2564,45 +2569,45 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -2651,25 +2656,25 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>19</v>
@@ -2683,10 +2688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2694,10 +2699,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
@@ -2709,16 +2714,16 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2768,31 +2773,31 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>19</v>
@@ -2800,10 +2805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2811,10 +2816,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
@@ -2826,13 +2831,13 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2883,25 +2888,25 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>19</v>
@@ -2915,10 +2920,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2926,31 +2931,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2976,13 +2981,13 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
@@ -3000,31 +3005,31 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>19</v>
@@ -3032,10 +3037,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3043,10 +3048,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
@@ -3058,13 +3063,13 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3091,13 +3096,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3115,25 +3120,25 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>19</v>
@@ -3147,10 +3152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3158,10 +3163,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
@@ -3173,16 +3178,16 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3208,13 +3213,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3232,25 +3237,25 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3264,10 +3269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3275,10 +3280,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3287,19 +3292,19 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3325,13 +3330,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3349,42 +3354,42 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3392,10 +3397,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -3404,19 +3409,19 @@
         <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3466,42 +3471,42 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3509,10 +3514,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -3524,13 +3529,13 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3581,25 +3586,25 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>19</v>
@@ -3613,10 +3618,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3624,10 +3629,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -3639,13 +3644,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3696,28 +3701,28 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>19</v>
@@ -3728,10 +3733,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3739,10 +3744,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -3754,13 +3759,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3811,25 +3816,25 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>19</v>
@@ -3843,10 +3848,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3854,10 +3859,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -3869,13 +3874,13 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3926,13 +3931,13 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
@@ -3944,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
@@ -3958,21 +3963,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -3984,16 +3989,16 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4043,25 +4048,25 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
@@ -4075,45 +4080,45 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4162,25 +4167,25 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>19</v>
@@ -4194,10 +4199,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4205,10 +4210,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4220,17 +4225,17 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4255,13 +4260,13 @@
         <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>19</v>
@@ -4279,25 +4284,25 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
@@ -4311,10 +4316,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4322,10 +4327,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -4337,13 +4342,13 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4394,25 +4399,25 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -4426,10 +4431,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4437,10 +4442,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -4452,13 +4457,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4509,25 +4514,25 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -4541,10 +4546,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4552,10 +4557,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -4567,16 +4572,16 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4626,42 +4631,42 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4669,10 +4674,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -4684,13 +4689,13 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4717,13 +4722,13 @@
         <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>19</v>
@@ -4741,42 +4746,42 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4784,10 +4789,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>19</v>
@@ -4799,13 +4804,13 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4856,42 +4861,42 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4899,10 +4904,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -4914,13 +4919,13 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4971,25 +4976,25 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -4998,15 +5003,15 @@
         <v>19</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5014,10 +5019,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -5026,16 +5031,16 @@
         <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5086,42 +5091,42 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5129,10 +5134,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5144,13 +5149,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5201,42 +5206,42 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5244,10 +5249,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
@@ -5259,13 +5264,13 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5316,42 +5321,42 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5359,10 +5364,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5374,13 +5379,13 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5431,31 +5436,31 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>19</v>
@@ -5463,10 +5468,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5474,10 +5479,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5489,13 +5494,13 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5546,25 +5551,25 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>19</v>
@@ -5573,15 +5578,15 @@
         <v>19</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5589,10 +5594,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -5604,16 +5609,16 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5663,25 +5668,25 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
@@ -5695,10 +5700,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5706,10 +5711,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -5721,13 +5726,13 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5778,31 +5783,31 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>19</v>
@@ -5810,10 +5815,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5821,10 +5826,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -5836,13 +5841,13 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5893,13 +5898,13 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
@@ -5911,7 +5916,7 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
@@ -5925,21 +5930,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -5951,16 +5956,16 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6010,25 +6015,25 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>19</v>
@@ -6042,45 +6047,45 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6129,25 +6134,25 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>19</v>
@@ -6161,10 +6166,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6172,10 +6177,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -6187,13 +6192,13 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6244,25 +6249,25 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>19</v>
@@ -6276,10 +6281,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6287,10 +6292,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -6302,13 +6307,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6335,13 +6340,13 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -6359,42 +6364,42 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6402,10 +6407,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -6417,13 +6422,13 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6450,13 +6455,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6474,31 +6479,31 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>19</v>
@@ -6506,10 +6511,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6517,10 +6522,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -6532,13 +6537,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6589,31 +6594,31 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -6621,21 +6626,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -6647,16 +6652,16 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6706,25 +6711,25 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>19</v>
@@ -6738,10 +6743,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6749,10 +6754,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -6764,16 +6769,16 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6823,25 +6828,25 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>19</v>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1468,17 +1468,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.61328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.25390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1487,26 +1487,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="117.7890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="62.83984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-inpatient-medication-dispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
